--- a/daily_ask/day1_answer.xlsx
+++ b/daily_ask/day1_answer.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>表达式运行后的结果，在未再次运行表达式的情况下，会随着表达式的改变而改变么？为什么？</t>
-  </si>
-  <si>
-    <t>4,"4"和4.0表示的含义相同么？为什么？</t>
   </si>
   <si>
     <t>检查数据类型的指令是什么？请举例说明使用方法和输出结果。</t>
@@ -322,10 +319,6 @@
   </si>
   <si>
     <t>林逸帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号是1的童鞋，不是应该回答第1题吗。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,28 +366,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>赵言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴文倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵丽婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李肖博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>正确回答了问题，详细说明了原因，很棒。Python运算符有很多，可以详细参考下面的链接：http://www.runoob.com/python/python-operators.html
 除此之外，还可以考虑问题11，x=4，y='4', print(x*4)和print(y*4)的输出结果相同么？为什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴文倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵丽婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李肖博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨雪娇</t>
+    <t>4,"4"和4.0表示的含义相同么？为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确回答了问题，详细说明了原因，很棒。可以考虑一下4,"4"和4.0表示的含义相同么？为什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +534,30 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,29 +567,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,23 +865,23 @@
     <col min="6" max="6" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -881,14 +889,17 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>68</v>
+      <c r="B2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,45 +907,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>78</v>
+      <c r="F3" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>75</v>
+      <c r="F5" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,16 +953,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -959,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>58</v>
+      <c r="F7" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -976,16 +987,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,16 +1004,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>74</v>
+      <c r="F9" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,16 +1021,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1027,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>72</v>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,45 +1055,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="B13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,36 +1101,36 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="B16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>82</v>
+      <c r="B17" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1145,33 +1156,33 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8">
+      <c r="B2" s="16">
         <v>43284</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/daily_ask/day1_answer.xlsx
+++ b/daily_ask/day1_answer.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>开课第一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -527,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,28 +572,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,14 +899,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -918,14 +932,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -942,8 +956,8 @@
       <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1001,7 +1015,7 @@
       <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1009,7 +1023,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D8"/>
@@ -1034,7 +1048,7 @@
       <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1042,10 +1056,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D10"/>
+      <c r="C10" s="1">
+        <v>85</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1064,10 +1083,10 @@
       <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1075,7 +1094,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D12"/>
@@ -1100,7 +1119,7 @@
       <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1120,7 +1139,7 @@
       <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1148,7 +1167,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1172,7 +1191,7 @@
       <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1224,19 +1243,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
